--- a/static/base_data/5.3gene_list.xlsx
+++ b/static/base_data/5.3gene_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>MAPK信号通路</t>
   </si>
@@ -671,6 +671,42 @@
 靶向通路治疗手段：JAK抑制剂</t>
   </si>
   <si>
+    <t>CRLF2</t>
+  </si>
+  <si>
+    <t>JAK1</t>
+  </si>
+  <si>
+    <t>JAK2</t>
+  </si>
+  <si>
+    <t>JAK3</t>
+  </si>
+  <si>
+    <t>SOCS1</t>
+  </si>
+  <si>
+    <t>STAT1</t>
+  </si>
+  <si>
+    <t>STAT2</t>
+  </si>
+  <si>
+    <t>STAT3</t>
+  </si>
+  <si>
+    <t>STAT4</t>
+  </si>
+  <si>
+    <t>STAT5A</t>
+  </si>
+  <si>
+    <t>STAT5B</t>
+  </si>
+  <si>
+    <t>STAT6</t>
+  </si>
+  <si>
     <t xml:space="preserve">通路简介：激酶融合信号参与基因转录、细胞生长、增殖、分化、存活和代谢调控。两个基因易位重排（其中一个基因编码蛋白激酶）导致融合激酶产生；肿瘤细胞中异常基因组改变常导致融合激酶的产生。激酶融合后激活如MAP激酶信号传导，JAK/STAT信号传导和PI3K/AKT/MTOR信号传导等下游信号传导途径从而促进基因转录，细胞生长，增殖，分化和存活。
 上游通路：受体酪氨酸激酶/生长因子信号
 下游通路：细胞周期调控，MAP激酶信号传导，JAK/STAT信号，PI3K/ AKT1/ MTOR信号
@@ -684,10 +720,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -714,14 +750,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,14 +787,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,11 +817,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,13 +847,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -826,22 +870,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -856,6 +884,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -863,6 +899,174 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -872,181 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,24 +1093,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1093,32 +1111,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,6 +1153,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1157,16 +1178,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,16 +1211,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,115 +1229,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2346,8 +2382,8 @@
   <sheetPr/>
   <dimension ref="A1:AO11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2890,84 +2926,60 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>169</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11" ht="185.25" spans="1:27">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
